--- a/biology/Botanique/Crotalaria_goreensis/Crotalaria_goreensis.xlsx
+++ b/biology/Botanique/Crotalaria_goreensis/Crotalaria_goreensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria goreensis est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria goreensis est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale.
 Son épithète spécifique goreensis fait référence à l'île de Gorée au Sénégal.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se présente sous des formes assez variées, tantôt annuelle, tantôt vivace de courte durée, érigée ou couchée. Sa hauteur peut aller de 6 à 250 cm. Elle peut ou non développer des branches[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se présente sous des formes assez variées, tantôt annuelle, tantôt vivace de courte durée, érigée ou couchée. Sa hauteur peut aller de 6 à 250 cm. Elle peut ou non développer des branches.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très répandue en Afrique tropicale, elle est observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, au Zimbabwe et au Mozambique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très répandue en Afrique tropicale, elle est observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, au Zimbabwe et au Mozambique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe dans des endroits herbeux, sur des terrains cultivés ou dégradés, des jachères ou le long des rivières. Elle est parfois considérée comme une mauvaise herbe[3]. On la trouve à une altitude comprise entre 600 et 1 200 m.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe dans des endroits herbeux, sur des terrains cultivés ou dégradés, des jachères ou le long des rivières. Elle est parfois considérée comme une mauvaise herbe. On la trouve à une altitude comprise entre 600 et 1 200 m.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Queensland (Australie), elle est cultivée comme engrais vert pour le tabac et la canne à sucre. Elle a également été acclimatée en Nouvelle-Guinée[2] .
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Queensland (Australie), elle est cultivée comme engrais vert pour le tabac et la canne à sucre. Elle a également été acclimatée en Nouvelle-Guinée .
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Crotalaria goreensis subsp. goreensis
 sous-espèce Crotalaria goreensis subsp. macrostipula (Steud. ex A. Rich.) Baker f.
 variété Crotalaria goreensis var. angustifolia Baker
